--- a/municipal/ENG/Culture/Imereti/Kharagauli.xlsx
+++ b/municipal/ENG/Culture/Imereti/Kharagauli.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\კულტურა\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Culture\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
     <t>number of theatres</t>
   </si>
   <si>
-    <t>Number of Museums and Theatres in Kharagauli</t>
+    <t>Number of Museums and Theatres in Kharagauli municipality</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -473,9 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,9 +641,6 @@
       <c r="D6" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/municipal/ENG/Culture/Imereti/Kharagauli.xlsx
+++ b/municipal/ENG/Culture/Imereti/Kharagauli.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Culture\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Culture\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E330417C-05D7-4913-BDB0-A46554B1C932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kharagauli" sheetId="1" r:id="rId1"/>
@@ -24,28 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
   <si>
-    <t>─</t>
+    <t>Theatres</t>
   </si>
   <si>
-    <t>(Unit)</t>
+    <t>Total number of theatres, unit</t>
   </si>
   <si>
-    <t>number of museums</t>
+    <t>Museums</t>
   </si>
   <si>
-    <t>number of theatres</t>
+    <t>Total number of museums, unit</t>
   </si>
   <si>
-    <t>Number of Museums and Theatres in Kharagauli municipality</t>
+    <t>Annual attendance, persons</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Annual attendance per 1 000 population</t>
+  </si>
+  <si>
+    <t>Number of excursions, unit</t>
+  </si>
+  <si>
+    <t>Number of exhibitions, unit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "..." - Data is missing or confidential</t>
+    </r>
+  </si>
+  <si>
+    <t>Museums and Theatres in Kharagauli municipality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,12 +110,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -85,11 +120,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -98,6 +128,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -117,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,51 +205,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
-    <cellStyle name="Normal_Sheet1_1" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet1_1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,38 +559,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="5" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="10"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29" style="4" customWidth="1"/>
+    <col min="2" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
+    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -515,132 +604,436 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3">
         <v>2010</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2011</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2012</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2013</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2014</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>2015</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2016</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>2017</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>2018</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>2019</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>2020</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>2</v>
-      </c>
-      <c r="L4" s="8">
-        <v>2</v>
-      </c>
-      <c r="M4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="N3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2016</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2019</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="11"/>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
+      <c r="J9" s="18">
+        <v>2</v>
+      </c>
+      <c r="K9" s="18">
+        <v>2</v>
+      </c>
+      <c r="L9" s="18">
+        <v>2</v>
+      </c>
+      <c r="M9" s="18">
+        <v>2</v>
+      </c>
+      <c r="N9" s="18">
+        <v>2</v>
+      </c>
+      <c r="O9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
